--- a/lotterypool.xlsx
+++ b/lotterypool.xlsx
@@ -26,11 +26,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.8,addCopper(10);0.1,addEquipment(2);0.1,addSoul(1);</t>
+    <t>0.8,addCopper,10;0.1,addEquipment,2;0.1,addSoul,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.3,addCopper(10000);0.2,addEquipment(2);0.5,addSoul(1);</t>
+    <t>0.3,addCopper,10000;0.2,addEquipment,2;0.5,addSoul,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +378,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/lotterypool.xlsx
+++ b/lotterypool.xlsx
@@ -26,11 +26,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.8,addCopper,10;0.1,addEquipment,2;0.1,addSoul,1;</t>
+    <t>0.8,addCopper,10;0.1,addEquip,2;0.1,addSoul,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.3,addCopper,10000;0.2,addEquipment,2;0.5,addSoul,1;</t>
+    <t>0.3,addCopper,10000;0.2,addEquip,2;0.5,addSoul,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/lotterypool.xlsx
+++ b/lotterypool.xlsx
@@ -26,11 +26,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.8,addCopper,10;0.1,addEquip,2;0.1,addSoul,1;</t>
+    <t>0.8,addCopper,10;0.1,addEquip,2;0.1,addSoul,1000;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.3,addCopper,10000;0.2,addEquip,2;0.5,addSoul,1;</t>
+    <t>0.3,addCopper,10000;0.2,addEquip,2;0.5,addSoul,1001;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +378,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
